--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85059</v>
+        <v>36440</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emilly da Costa</t>
+          <t>Luiz Felipe Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>10051.41</v>
+        <v>7613.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35302</v>
+        <v>30093</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Viana</t>
+          <t>Ana Júlia Melo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>4927.09</v>
+        <v>9130.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29892</v>
+        <v>9664</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isadora Correia</t>
+          <t>Lorena Araújo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,213 +555,213 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>9601.280000000001</v>
+        <v>11277.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75611</v>
+        <v>44481</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laís Barbosa</t>
+          <t>Sr. Paulo Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>4592.5</v>
+        <v>6948.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90264</v>
+        <v>51132</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Gomes</t>
+          <t>Dr. Pedro Miguel Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>12094.92</v>
+        <v>5190.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8699</v>
+        <v>8812</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Ana Lívia Cardoso</t>
+          <t>Lucca Rodrigues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>5100.01</v>
+        <v>11113.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42034</v>
+        <v>59095</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Guilherme Carvalho</t>
+          <t>João Guilherme Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>12163.74</v>
+        <v>4964.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29445</v>
+        <v>74670</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Benício Duarte</t>
+          <t>Dr. João Pedro Viana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>6417.65</v>
+        <v>7870.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91242</v>
+        <v>31613</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fernando Moura</t>
+          <t>João Felipe Nunes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>7321.45</v>
+        <v>5720.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8315</v>
+        <v>45593</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cauã Cardoso</t>
+          <t>Yago da Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>8419.129999999999</v>
+        <v>11138.61</v>
       </c>
     </row>
   </sheetData>
